--- a/БДР_апрель_2023_накопительным_Название компании.xlsx
+++ b/БДР_апрель_2023_накопительным_Название компании.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pushin_in\Desktop\Новая папка\bdr_consolidation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33A130C-7436-481A-825D-CF4B1D20036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1549196-F577-4F7B-9238-B4653D1A9ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="218" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,6 +871,27 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -900,29 +916,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,88 +1264,88 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:24" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22" t="s">
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22" t="s">
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="23" t="s">
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
     </row>
     <row r="5" spans="1:24" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22" t="s">
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22" t="s">
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
     </row>
     <row r="6" spans="1:24" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1413,11 +1408,11 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1483,11 +1478,11 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1553,11 +1548,11 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1623,11 +1618,11 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1693,11 +1688,11 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1763,11 +1758,11 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1833,11 +1828,11 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1903,11 +1898,11 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1973,11 +1968,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
@@ -2043,11 +2038,11 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2113,11 +2108,11 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="7" t="s">
         <v>35</v>
       </c>
@@ -2183,11 +2178,11 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="4" t="s">
         <v>37</v>
       </c>
@@ -2253,11 +2248,11 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="7" t="s">
         <v>39</v>
       </c>
@@ -2323,11 +2318,11 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="7" t="s">
         <v>41</v>
       </c>
@@ -2393,11 +2388,11 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="7" t="s">
         <v>43</v>
       </c>
@@ -2463,11 +2458,11 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="7" t="s">
         <v>45</v>
       </c>
@@ -2533,11 +2528,11 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="4" t="s">
         <v>47</v>
       </c>
@@ -2603,11 +2598,11 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="4" t="s">
         <v>49</v>
       </c>
@@ -2673,11 +2668,11 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="7" t="s">
         <v>51</v>
       </c>
@@ -2743,11 +2738,11 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
@@ -2813,11 +2808,11 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="7" t="s">
         <v>55</v>
       </c>
@@ -2883,11 +2878,11 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="7" t="s">
         <v>57</v>
       </c>
@@ -2953,11 +2948,11 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="4" t="s">
         <v>59</v>
       </c>
@@ -3023,11 +3018,11 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="7" t="s">
         <v>61</v>
       </c>
@@ -3093,11 +3088,11 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="4" t="s">
         <v>63</v>
       </c>
@@ -3163,11 +3158,11 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="13.05" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="4" t="s">
         <v>65</v>
       </c>
@@ -3233,11 +3228,11 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="7" t="s">
         <v>67</v>
       </c>
@@ -3303,11 +3298,11 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="13.05" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="4" t="s">
         <v>69</v>
       </c>
@@ -3373,11 +3368,11 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="7" t="s">
         <v>71</v>
       </c>
@@ -3443,11 +3438,11 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="13.05" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="4" t="s">
         <v>73</v>
       </c>
@@ -3513,11 +3508,11 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="7" t="s">
         <v>75</v>
       </c>
@@ -3583,11 +3578,11 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="13.05" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="4" t="s">
         <v>77</v>
       </c>
@@ -3653,11 +3648,11 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="7" t="s">
         <v>79</v>
       </c>
@@ -3723,11 +3718,11 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="7" t="s">
         <v>81</v>
       </c>
@@ -3793,11 +3788,11 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="7" t="s">
         <v>83</v>
       </c>
@@ -3863,11 +3858,11 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="7" t="s">
         <v>85</v>
       </c>
@@ -3933,11 +3928,11 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="4" t="s">
         <v>87</v>
       </c>
@@ -4003,11 +3998,11 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="7" t="s">
         <v>89</v>
       </c>
@@ -4073,11 +4068,11 @@
       </c>
     </row>
     <row r="45" spans="1:24" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="4" t="s">
         <v>91</v>
       </c>
@@ -4143,11 +4138,11 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="13.05" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="4" t="s">
         <v>93</v>
       </c>
@@ -4213,11 +4208,11 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="7" t="s">
         <v>95</v>
       </c>
@@ -4283,11 +4278,11 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="7" t="s">
         <v>97</v>
       </c>
@@ -4353,11 +4348,11 @@
       </c>
     </row>
     <row r="49" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="7" t="s">
         <v>99</v>
       </c>
@@ -4423,11 +4418,11 @@
       </c>
     </row>
     <row r="50" spans="1:24" ht="13.05" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="4" t="s">
         <v>101</v>
       </c>
@@ -4493,11 +4488,11 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="7" t="s">
         <v>103</v>
       </c>
@@ -4563,11 +4558,11 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="7" t="s">
         <v>105</v>
       </c>
@@ -4633,11 +4628,11 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="13.05" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="4" t="s">
         <v>107</v>
       </c>
@@ -4703,11 +4698,11 @@
       </c>
     </row>
     <row r="54" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="7" t="s">
         <v>109</v>
       </c>
@@ -4773,11 +4768,11 @@
       </c>
     </row>
     <row r="55" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="7" t="s">
         <v>111</v>
       </c>
@@ -4843,11 +4838,11 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="7" t="s">
         <v>113</v>
       </c>
@@ -4913,11 +4908,11 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="7" t="s">
         <v>115</v>
       </c>
@@ -4983,11 +4978,11 @@
       </c>
     </row>
     <row r="58" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="7" t="s">
         <v>117</v>
       </c>
@@ -5053,11 +5048,11 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="7" t="s">
         <v>119</v>
       </c>
@@ -5123,11 +5118,11 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="7" t="s">
         <v>121</v>
       </c>
@@ -5193,11 +5188,11 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="7" t="s">
         <v>123</v>
       </c>
@@ -5263,11 +5258,11 @@
       </c>
     </row>
     <row r="62" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="7" t="s">
         <v>125</v>
       </c>
@@ -5333,11 +5328,11 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="7" t="s">
         <v>127</v>
       </c>
@@ -5403,11 +5398,11 @@
       </c>
     </row>
     <row r="64" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="7" t="s">
         <v>129</v>
       </c>
@@ -5473,11 +5468,11 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="7" t="s">
         <v>131</v>
       </c>
@@ -5543,11 +5538,11 @@
       </c>
     </row>
     <row r="66" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="7" t="s">
         <v>133</v>
       </c>
@@ -5613,11 +5608,11 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="7" t="s">
         <v>135</v>
       </c>
@@ -5683,11 +5678,11 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="7" t="s">
         <v>137</v>
       </c>
@@ -5753,11 +5748,11 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="7" t="s">
         <v>139</v>
       </c>
@@ -5823,11 +5818,11 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="7" t="s">
         <v>141</v>
       </c>
@@ -5893,11 +5888,11 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="7" t="s">
         <v>143</v>
       </c>
@@ -5963,11 +5958,11 @@
       </c>
     </row>
     <row r="72" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="7" t="s">
         <v>145</v>
       </c>
@@ -6033,11 +6028,11 @@
       </c>
     </row>
     <row r="73" spans="1:24" ht="10.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="7" t="s">
         <v>147</v>
       </c>
@@ -6103,11 +6098,11 @@
       </c>
     </row>
     <row r="74" spans="1:24" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
       <c r="D74" s="4" t="s">
         <v>149</v>
       </c>
@@ -6173,11 +6168,11 @@
       </c>
     </row>
     <row r="75" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="7" t="s">
         <v>151</v>
       </c>
@@ -6243,11 +6238,11 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="4" t="s">
         <v>153</v>
       </c>
@@ -6313,11 +6308,11 @@
       </c>
     </row>
     <row r="77" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="7" t="s">
         <v>155</v>
       </c>
@@ -6383,11 +6378,11 @@
       </c>
     </row>
     <row r="78" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="7" t="s">
         <v>157</v>
       </c>
@@ -6453,11 +6448,11 @@
       </c>
     </row>
     <row r="79" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="7" t="s">
         <v>159</v>
       </c>
@@ -6523,11 +6518,11 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="7" t="s">
         <v>161</v>
       </c>
@@ -6593,11 +6588,11 @@
       </c>
     </row>
     <row r="81" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="7" t="s">
         <v>163</v>
       </c>
@@ -6663,11 +6658,11 @@
       </c>
     </row>
     <row r="82" spans="1:24" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="4" t="s">
         <v>165</v>
       </c>
@@ -6733,11 +6728,11 @@
       </c>
     </row>
     <row r="83" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
       <c r="D83" s="7" t="s">
         <v>166</v>
       </c>
@@ -6803,11 +6798,11 @@
       </c>
     </row>
     <row r="84" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="7" t="s">
         <v>167</v>
       </c>
@@ -6873,11 +6868,11 @@
       </c>
     </row>
     <row r="85" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="7" t="s">
         <v>168</v>
       </c>
@@ -6943,11 +6938,11 @@
       </c>
     </row>
     <row r="86" spans="1:24" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
       <c r="D86" s="4" t="s">
         <v>170</v>
       </c>
@@ -7013,11 +7008,11 @@
       </c>
     </row>
     <row r="87" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="7" t="s">
         <v>172</v>
       </c>
@@ -7083,11 +7078,11 @@
       </c>
     </row>
     <row r="88" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="7" t="s">
         <v>174</v>
       </c>
@@ -7153,11 +7148,11 @@
       </c>
     </row>
     <row r="89" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="7" t="s">
         <v>176</v>
       </c>
@@ -7223,11 +7218,11 @@
       </c>
     </row>
     <row r="90" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="7" t="s">
         <v>178</v>
       </c>
@@ -7293,11 +7288,11 @@
       </c>
     </row>
     <row r="91" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="7" t="s">
         <v>180</v>
       </c>
@@ -7363,11 +7358,11 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
       <c r="D92" s="4" t="s">
         <v>182</v>
       </c>
@@ -7433,11 +7428,11 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="13.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="4" t="s">
         <v>184</v>
       </c>
@@ -7503,11 +7498,11 @@
       </c>
     </row>
     <row r="94" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="7" t="s">
         <v>186</v>
       </c>
@@ -7573,11 +7568,11 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="7" t="s">
         <v>188</v>
       </c>
@@ -7643,11 +7638,11 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="7" t="s">
         <v>190</v>
       </c>
@@ -7713,11 +7708,11 @@
       </c>
     </row>
     <row r="97" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
       <c r="D97" s="7" t="s">
         <v>192</v>
       </c>
@@ -7783,11 +7778,11 @@
       </c>
     </row>
     <row r="98" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="7" t="s">
         <v>194</v>
       </c>
@@ -7853,11 +7848,11 @@
       </c>
     </row>
     <row r="99" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
       <c r="D99" s="7" t="s">
         <v>196</v>
       </c>
@@ -7923,11 +7918,11 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
       <c r="D100" s="7" t="s">
         <v>198</v>
       </c>
@@ -7993,11 +7988,11 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
       <c r="D101" s="7" t="s">
         <v>200</v>
       </c>
@@ -8063,11 +8058,11 @@
       </c>
     </row>
     <row r="102" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
       <c r="D102" s="7" t="s">
         <v>202</v>
       </c>
@@ -8133,11 +8128,11 @@
       </c>
     </row>
     <row r="103" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
       <c r="D103" s="7" t="s">
         <v>204</v>
       </c>
@@ -8203,11 +8198,11 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="7" t="s">
         <v>206</v>
       </c>
@@ -8273,11 +8268,11 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
       <c r="D105" s="7" t="s">
         <v>208</v>
       </c>
@@ -8343,11 +8338,11 @@
       </c>
     </row>
     <row r="106" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
       <c r="D106" s="7" t="s">
         <v>210</v>
       </c>
@@ -8413,11 +8408,11 @@
       </c>
     </row>
     <row r="107" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="7" t="s">
         <v>212</v>
       </c>
@@ -8483,11 +8478,11 @@
       </c>
     </row>
     <row r="108" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
       <c r="D108" s="7" t="s">
         <v>214</v>
       </c>
@@ -8553,11 +8548,11 @@
       </c>
     </row>
     <row r="109" spans="1:24" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="7" t="s">
         <v>216</v>
       </c>
@@ -8623,12 +8618,12 @@
       </c>
     </row>
     <row r="110" spans="1:24" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
       <c r="E110" s="13">
         <v>0</v>
       </c>
@@ -8692,6 +8687,108 @@
     </row>
   </sheetData>
   <mergeCells count="116">
+    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A106:C106"/>
     <mergeCell ref="A107:C107"/>
     <mergeCell ref="A108:C108"/>
@@ -8706,108 +8803,6 @@
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="A104:C104"/>
     <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A4:C6"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="U5:X5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup pageOrder="overThenDown" orientation="portrait"/>
